--- a/Project Management Sources/Curva d'urgenza.xlsx
+++ b/Project Management Sources/Curva d'urgenza.xlsx
@@ -5,41 +5,69 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/UUX-Project/Project Management Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D973C-91DB-2948-BBF4-0963AACC8583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FAA243-3CA6-AD48-B293-7E36F0450A7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{ADA57D0C-6A8F-CD4A-974D-0AC0E7DFC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Foglio1!$A$1:$A$7</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Foglio1!$B$1:$B$7</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+  <si>
+    <t>Utente</t>
+  </si>
+  <si>
+    <t>TASK 1</t>
+  </si>
+  <si>
+    <t>TASK 2</t>
+  </si>
+  <si>
+    <t>TASK 3</t>
+  </si>
+  <si>
+    <t>Efficacia</t>
+  </si>
+  <si>
+    <t>Efficienza</t>
+  </si>
+  <si>
+    <t>Federica</t>
+  </si>
+  <si>
+    <t>Michela</t>
+  </si>
+  <si>
+    <t>Daniele</t>
+  </si>
+  <si>
+    <t>Soddisfazione</t>
+  </si>
+  <si>
+    <t>Risultati attesi</t>
+  </si>
+  <si>
+    <t>Risultati reali</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,16 +75,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -64,14 +143,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Colore 6" xfId="2" builtinId="50"/>
+    <cellStyle name="60% - Colore 6" xfId="3" builtinId="52"/>
+    <cellStyle name="Colore 6" xfId="1" builtinId="49"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1479,16 +1746,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>343403</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>163466</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104492</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>553267</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314356</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>62870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1813,13 +2080,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81C49A-D5AC-CE4A-8B37-F3201402E89F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="101" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -1877,7 +2160,273 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="4:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="D26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="M26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="16"/>
+    </row>
+    <row r="27" spans="4:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="D27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="11"/>
+      <c r="E28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="4:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>7</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3</v>
+      </c>
+      <c r="P29" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+      <c r="R29" s="1">
+        <v>3</v>
+      </c>
+      <c r="S29" s="1">
+        <v>2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>5</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>3</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>2</v>
+      </c>
+      <c r="P31" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>3</v>
+      </c>
+      <c r="S31" s="3">
+        <v>2</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D26:K26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Project Management Sources/Curva d'urgenza.xlsx
+++ b/Project Management Sources/Curva d'urgenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/UUX-Project/Project Management Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FAA243-3CA6-AD48-B293-7E36F0450A7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB961736-A85C-7640-A2A3-0859845C84ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{ADA57D0C-6A8F-CD4A-974D-0AC0E7DFC66E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Utente</t>
   </si>
@@ -54,20 +54,56 @@
     <t>Daniele</t>
   </si>
   <si>
-    <t>Soddisfazione</t>
-  </si>
-  <si>
     <t>Risultati attesi</t>
   </si>
   <si>
     <t>Risultati reali</t>
+  </si>
+  <si>
+    <t>Emozione</t>
+  </si>
+  <si>
+    <t>Impatto</t>
+  </si>
+  <si>
+    <t>Implementazione</t>
+  </si>
+  <si>
+    <t>Errori</t>
+  </si>
+  <si>
+    <t>Catstrofico</t>
+  </si>
+  <si>
+    <t>Grave</t>
+  </si>
+  <si>
+    <t>Minore</t>
+  </si>
+  <si>
+    <t>Cosmetico</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +135,20 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -268,6 +318,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -275,7 +345,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +356,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,41 +371,95 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -434,7 +561,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.1679247400230022E-2"/>
           <c:y val="0.10550958139368172"/>
-          <c:w val="0.78067604208224362"/>
+          <c:w val="0.67223150467704984"/>
           <c:h val="0.82851321502018438"/>
         </c:manualLayout>
       </c:layout>
@@ -445,7 +572,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Curva urgenza</c:v>
+            <c:v>Curva d'urgenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
@@ -469,10 +596,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$A$7</c:f>
+              <c:f>Foglio1!$A$1:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -480,7 +607,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$1:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -489,39 +652,15 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$1:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -569,7 +708,7 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>1</c:v>
+                <c:v>3</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -633,7 +772,7 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>2</c:v>
+                <c:v>1</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
@@ -660,7 +799,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="dash"/>
+            <c:symbol val="diamond"/>
             <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
@@ -679,7 +818,7 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>1</c:v>
+                <c:v>4</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -688,7 +827,7 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>2</c:v>
+                <c:v>3</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
@@ -732,220 +871,6 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>3</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-CD4A-9E4D-BFA5-7195B4AAED40}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>E5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-CD4A-9E4D-BFA5-7195B4AAED40}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>E6</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:xVal>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-CD4A-9E4D-BFA5-7195B4AAED40}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>E7</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="12"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="41275" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-CD4A-9E4D-BFA5-7195B4AAED40}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
                 <c:v>3</c:v>
               </c:pt>
             </c:numLit>
@@ -955,14 +880,14 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>3</c:v>
+                <c:v>2</c:v>
               </c:pt>
             </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-CD4A-9E4D-BFA5-7195B4AAED40}"/>
+              <c16:uniqueId val="{00000008-CD4A-9E4D-BFA5-7195B4AAED40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -981,7 +906,8 @@
         <c:axId val="36423040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
+          <c:max val="4.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1114,9 +1040,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84779822180862507"/>
+          <c:x val="0.78004951083164475"/>
           <c:y val="0.3451187985286277"/>
-          <c:w val="0.1404732569911169"/>
+          <c:w val="0.17767501133612315"/>
           <c:h val="0.45510298262042276"/>
         </c:manualLayout>
       </c:layout>
@@ -1133,7 +1059,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1149,8 +1075,8 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1746,16 +1672,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104492</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>25149</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>53163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314356</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>62870</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1400735</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2080,28 +2006,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81C49A-D5AC-CE4A-8B37-F3201402E89F}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="101" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2122,10 +2052,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2138,10 +2068,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2157,275 +2087,477 @@
         <v>3</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:20" ht="24" x14ac:dyDescent="0.3">
-      <c r="D26" s="14" t="s">
+    <row r="27" spans="4:28" ht="24" x14ac:dyDescent="0.3">
+      <c r="D27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
-      <c r="M26" s="14" t="s">
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="21"/>
+      <c r="W27" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="X27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="35"/>
+    </row>
+    <row r="28" spans="4:28" ht="21" x14ac:dyDescent="0.2">
+      <c r="D28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="16"/>
+      <c r="M28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="25"/>
+      <c r="P28" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="25"/>
+      <c r="T28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="W28" s="34"/>
+      <c r="X28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="4:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="D27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13" t="s">
+    <row r="29" spans="4:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="23"/>
+      <c r="E29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="27"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="27"/>
+      <c r="W29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+    </row>
+    <row r="30" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="6">
+        <v>7</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3</v>
+      </c>
+      <c r="S30" s="1">
+        <v>2</v>
+      </c>
+      <c r="T30" s="6">
+        <v>7</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB30" s="37"/>
+    </row>
+    <row r="31" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>6</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="2">
+        <v>3</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>3</v>
+      </c>
+      <c r="S31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="5">
+        <v>6</v>
+      </c>
+      <c r="W31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+    </row>
+    <row r="32" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="13" t="s">
+      <c r="K32" s="7">
+        <v>5</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N27" s="13" t="s">
+      <c r="P32" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="13" t="s">
+      <c r="R32" s="3">
         <v>2</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+      <c r="T32" s="7">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
     </row>
-    <row r="28" spans="4:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="11"/>
-      <c r="E28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28" s="12"/>
+    <row r="35" spans="4:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
-    <row r="29" spans="4:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>3</v>
-      </c>
-      <c r="H29" s="1">
-        <v>2</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3</v>
-      </c>
-      <c r="J29" s="1">
-        <v>3</v>
-      </c>
-      <c r="K29" s="5">
-        <v>7</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N29" s="1">
-        <v>3</v>
-      </c>
-      <c r="O29" s="1">
-        <v>3</v>
-      </c>
-      <c r="P29" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>2</v>
-      </c>
-      <c r="R29" s="1">
-        <v>3</v>
-      </c>
-      <c r="S29" s="1">
-        <v>2</v>
-      </c>
-      <c r="T29" s="5">
-        <v>6</v>
-      </c>
+    <row r="36" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
-    <row r="30" spans="4:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>3</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>2</v>
-      </c>
-      <c r="K30" s="4">
-        <v>5</v>
-      </c>
-      <c r="M30" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="2">
-        <v>2</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-      <c r="P30" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2">
-        <v>2</v>
-      </c>
-      <c r="S30" s="2">
-        <v>1</v>
-      </c>
-      <c r="T30" s="4">
-        <v>5</v>
-      </c>
+    <row r="37" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D37" s="18"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="18"/>
     </row>
-    <row r="31" spans="4:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="6">
-        <v>3</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>2</v>
-      </c>
-      <c r="P31" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>3</v>
-      </c>
-      <c r="S31" s="3">
-        <v>2</v>
-      </c>
-      <c r="T31" s="6">
-        <v>2</v>
-      </c>
+    <row r="38" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D39" s="16"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="43" spans="4:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="D43" s="29"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="4:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D46" s="11"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D47" s="12"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="M26:T26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D26:K26"/>
+  <mergeCells count="22">
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Project Management Sources/Curva d'urgenza.xlsx
+++ b/Project Management Sources/Curva d'urgenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/UUX-Project/Project Management Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB961736-A85C-7640-A2A3-0859845C84ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD5689-FCBA-4249-87CD-9B631B3026B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{ADA57D0C-6A8F-CD4A-974D-0AC0E7DFC66E}"/>
   </bookViews>
@@ -561,8 +561,8 @@
           <c:yMode val="edge"/>
           <c:x val="6.1679247400230022E-2"/>
           <c:y val="0.10550958139368172"/>
-          <c:w val="0.67223150467704984"/>
-          <c:h val="0.82851321502018438"/>
+          <c:w val="0.72013668574224143"/>
+          <c:h val="0.83055843424863696"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1040,9 +1040,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.78004951083164475"/>
-          <c:y val="0.3451187985286277"/>
-          <c:w val="0.17767501133612315"/>
+          <c:x val="0.81343790703243457"/>
+          <c:y val="0.34716410483113141"/>
+          <c:w val="0.17331999014692173"/>
           <c:h val="0.45510298262042276"/>
         </c:manualLayout>
       </c:layout>
@@ -1672,16 +1672,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>249551</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>53163</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1400735</xdr:colOff>
+      <xdr:colOff>797128</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
+      <xdr:rowOff>88217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2008,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81C49A-D5AC-CE4A-8B37-F3201402E89F}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F32" zoomScale="68" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="94" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Project Management Sources/Curva d'urgenza.xlsx
+++ b/Project Management Sources/Curva d'urgenza.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/UUX-Project/Project Management Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD5689-FCBA-4249-87CD-9B631B3026B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7816AC6-F035-AB45-9B3D-FE8C05887B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{ADA57D0C-6A8F-CD4A-974D-0AC0E7DFC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$AG$44:$AK$54</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
   <si>
     <t>Utente</t>
   </si>
@@ -97,13 +100,118 @@
   </si>
   <si>
     <t>×</t>
+  </si>
+  <si>
+    <t>Creazione</t>
+  </si>
+  <si>
+    <t>Lettura</t>
+  </si>
+  <si>
+    <t>Modifica</t>
+  </si>
+  <si>
+    <t>Eliminazione</t>
+  </si>
+  <si>
+    <t>Carrello</t>
+  </si>
+  <si>
+    <t>Associazione account</t>
+  </si>
+  <si>
+    <t>Reso</t>
+  </si>
+  <si>
+    <t>Spedizione</t>
+  </si>
+  <si>
+    <t>Preferiti</t>
+  </si>
+  <si>
+    <t>Assistenza</t>
+  </si>
+  <si>
+    <t>Ordine</t>
+  </si>
+  <si>
+    <t>ADULTO</t>
+  </si>
+  <si>
+    <t>Articolo</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profilo </t>
+  </si>
+  <si>
+    <t>RAGAZZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista multipla: campi relativi all'utente
+</t>
+  </si>
+  <si>
+    <t>Singola</t>
+  </si>
+  <si>
+    <t>Manuale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista multipla: lista degli articoli selezionati. Possibilità di passare ad una vista individuale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista multipla: vista ridotta con ciascuna istanza della lista. Possibilità di passare ad una vista individuale
+</t>
+  </si>
+  <si>
+    <t>Multipla</t>
+  </si>
+  <si>
+    <t>Vista multipla: insieme di tutti
+ gli account connessi</t>
+  </si>
+  <si>
+    <t>Manuale o automatica
+ (nel caso non esista più account young)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista multipla: visione degli ordini restituiti o  in fase di restituzione
+</t>
+  </si>
+  <si>
+    <t>Vista miltipla:
+ lista degli articoli selezionati come preferiti. Possibilità di passare a vista individuale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista singola:
+ lista delle informazioni d'aiuto all'utente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista singola:
+ lista degli articoli relativi all'ordine </t>
+  </si>
+  <si>
+    <t>Vista singola: 
+informazioni relative alla spedizione e costi</t>
+  </si>
+  <si>
+    <t>Associazione 
+account</t>
+  </si>
+  <si>
+    <t>Manuale: modifica del singolo articolo
+ eliminazione dello stesso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,8 +261,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +329,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -338,6 +501,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF70AD47"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF70AD47"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF70AD47"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -345,7 +589,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,71 +639,146 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2006,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81C49A-D5AC-CE4A-8B37-F3201402E89F}">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="94" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView tabSelected="1" topLeftCell="AD51" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI60" sqref="AI60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,7 +2350,17 @@
     <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.83203125" customWidth="1"/>
     <col min="24" max="24" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="13.83203125" customWidth="1"/>
+    <col min="25" max="26" width="13.83203125" customWidth="1"/>
+    <col min="27" max="27" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.83203125" customWidth="1"/>
+    <col min="30" max="30" width="15" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.5" customWidth="1"/>
+    <col min="36" max="36" width="22.6640625" customWidth="1"/>
+    <col min="37" max="37" width="27.6640625" customWidth="1"/>
+    <col min="43" max="45" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2107,75 +2436,75 @@
       </c>
     </row>
     <row r="27" spans="4:28" ht="24" x14ac:dyDescent="0.3">
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="M27" s="19" t="s">
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="M27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="21"/>
-      <c r="W27" s="33" t="s">
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="43"/>
+      <c r="W27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="X27" s="28" t="s">
+      <c r="X27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="35"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="37"/>
     </row>
     <row r="28" spans="4:28" ht="21" x14ac:dyDescent="0.2">
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="46"/>
+      <c r="G28" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="24" t="s">
+      <c r="H28" s="46"/>
+      <c r="I28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26" t="s">
+      <c r="J28" s="46"/>
+      <c r="K28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="24" t="s">
+      <c r="O28" s="46"/>
+      <c r="P28" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="24" t="s">
+      <c r="Q28" s="46"/>
+      <c r="R28" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="26" t="s">
+      <c r="S28" s="46"/>
+      <c r="T28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="W28" s="34"/>
+      <c r="W28" s="39"/>
       <c r="X28" s="9" t="s">
         <v>13</v>
       </c>
@@ -2193,7 +2522,7 @@
       </c>
     </row>
     <row r="29" spans="4:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="23"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="8" t="s">
         <v>4</v>
       </c>
@@ -2212,8 +2541,8 @@
       <c r="J29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="M29" s="23"/>
+      <c r="K29" s="48"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="8" t="s">
         <v>4</v>
       </c>
@@ -2232,17 +2561,17 @@
       <c r="S29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="W29" s="32" t="s">
+      <c r="T29" s="48"/>
+      <c r="W29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36" t="s">
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
     </row>
     <row r="30" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="10" t="s">
@@ -2296,13 +2625,13 @@
       <c r="W30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37" t="s">
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AB30" s="37"/>
+      <c r="AB30" s="20"/>
     </row>
     <row r="31" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="11" t="s">
@@ -2353,16 +2682,16 @@
       <c r="T31" s="5">
         <v>6</v>
       </c>
-      <c r="W31" s="32" t="s">
+      <c r="W31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36" t="s">
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
     </row>
     <row r="32" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="12" t="s">
@@ -2416,45 +2745,45 @@
       <c r="W32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38" t="s">
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-    </row>
-    <row r="35" spans="4:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="4:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-    </row>
-    <row r="37" spans="4:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="D37" s="18"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+    </row>
+    <row r="35" spans="4:37" ht="24" x14ac:dyDescent="0.3">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="4:37" ht="21" x14ac:dyDescent="0.2">
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="4:37" ht="21" x14ac:dyDescent="0.2">
+      <c r="D37" s="35"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="18"/>
-    </row>
-    <row r="38" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="K37" s="35"/>
+    </row>
+    <row r="38" spans="4:37" ht="21" x14ac:dyDescent="0.2">
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -2464,7 +2793,7 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:37" ht="21" x14ac:dyDescent="0.2">
       <c r="D39" s="16"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2474,7 +2803,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:37" ht="21" x14ac:dyDescent="0.2">
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -2484,27 +2813,41 @@
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="43" spans="4:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="D43" s="29"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="4:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
+    <row r="43" spans="4:37" ht="24" x14ac:dyDescent="0.3">
+      <c r="D43" s="40"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="43"/>
+    </row>
+    <row r="44" spans="4:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="41"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="AA44" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="33"/>
+      <c r="AG44" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="64"/>
+      <c r="AK44" s="65"/>
+    </row>
+    <row r="45" spans="4:37" ht="21" x14ac:dyDescent="0.2">
       <c r="D45" s="10"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2513,8 +2856,34 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC45" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD45" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE45" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI45" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ45" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK45" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="4:37" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="11"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2523,8 +2892,34 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="4:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="AA46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB46" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC46" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD46" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE46" s="22"/>
+      <c r="AG46" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH46" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI46" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ46" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK46" s="54"/>
+    </row>
+    <row r="47" spans="4:37" ht="68" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="12"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2533,9 +2928,331 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="7"/>
+      <c r="AA47" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD47" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE47" s="23"/>
+      <c r="AG47" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH47" s="57"/>
+      <c r="AI47" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ47" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK47" s="57"/>
+    </row>
+    <row r="48" spans="4:37" ht="68" x14ac:dyDescent="0.25">
+      <c r="AA48" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AG48" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH48" s="54"/>
+      <c r="AI48" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ48" s="54"/>
+      <c r="AK48" s="54"/>
+    </row>
+    <row r="49" spans="27:37" ht="51" x14ac:dyDescent="0.25">
+      <c r="AA49" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG49" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH49" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI49" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ49" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK49" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="27:37" ht="51" x14ac:dyDescent="0.25">
+      <c r="AA50" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB50" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC50" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AG50" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH50" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI50" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ50" s="54"/>
+      <c r="AK50" s="54"/>
+    </row>
+    <row r="51" spans="27:37" ht="51" x14ac:dyDescent="0.25">
+      <c r="AA51" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="23"/>
+      <c r="AG51" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ51" s="57"/>
+      <c r="AK51" s="57"/>
+    </row>
+    <row r="52" spans="27:37" ht="68" x14ac:dyDescent="0.25">
+      <c r="AA52" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD52" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE52" s="22"/>
+      <c r="AG52" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH52" s="54"/>
+      <c r="AI52" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ52" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK52" s="54"/>
+    </row>
+    <row r="53" spans="27:37" ht="51" x14ac:dyDescent="0.25">
+      <c r="AA53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AG53" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH53" s="57"/>
+      <c r="AI53" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ53" s="57"/>
+      <c r="AK53" s="57"/>
+    </row>
+    <row r="54" spans="27:37" ht="34" x14ac:dyDescent="0.25">
+      <c r="AA54" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB54" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC54" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD54" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE54" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG54" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH54" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI54" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ54" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK54" s="61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA58" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+      <c r="AD58" s="32"/>
+      <c r="AE58" s="33"/>
+    </row>
+    <row r="59" spans="27:37" ht="21" x14ac:dyDescent="0.2">
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC59" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD59" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE59" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA60" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB60" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC60" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD60" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE60" s="22"/>
+    </row>
+    <row r="61" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA61" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD61" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE61" s="23"/>
+    </row>
+    <row r="62" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA62" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="22"/>
+    </row>
+    <row r="63" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA63" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="23"/>
+    </row>
+    <row r="64" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA64" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="22"/>
+    </row>
+    <row r="65" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA65" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD65" s="23"/>
+      <c r="AE65" s="23"/>
+    </row>
+    <row r="66" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA66" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD66" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE66" s="22"/>
+    </row>
+    <row r="67" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA67" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD67" s="23"/>
+      <c r="AE67" s="23"/>
+    </row>
+    <row r="68" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AA68" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
+    <mergeCell ref="AG44:AK44"/>
     <mergeCell ref="X27:AB27"/>
     <mergeCell ref="W27:W28"/>
     <mergeCell ref="D43:D44"/>
@@ -2552,6 +3269,8 @@
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:T29"/>
+    <mergeCell ref="AA44:AE44"/>
+    <mergeCell ref="AA58:AE58"/>
     <mergeCell ref="D35:K35"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:F36"/>
@@ -2560,6 +3279,7 @@
     <mergeCell ref="K36:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Management Sources/Curva d'urgenza.xlsx
+++ b/Project Management Sources/Curva d'urgenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/UUX-Project/Project Management Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7816AC6-F035-AB45-9B3D-FE8C05887B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE24AEE-A7B5-F741-BFA5-16CAEBACC77A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{ADA57D0C-6A8F-CD4A-974D-0AC0E7DFC66E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
   <si>
     <t>Utente</t>
   </si>
@@ -2325,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81C49A-D5AC-CE4A-8B37-F3201402E89F}">
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD51" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI60" sqref="AI60"/>
+    <sheetView tabSelected="1" topLeftCell="AB59" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH64" sqref="AH64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="AK47" s="57"/>
     </row>
-    <row r="48" spans="4:37" ht="68" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:37" ht="68" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA48" s="24" t="s">
         <v>36</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="AJ48" s="54"/>
       <c r="AK48" s="54"/>
     </row>
-    <row r="49" spans="27:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="49" spans="27:37" ht="85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA49" s="25" t="s">
         <v>29</v>
       </c>
@@ -3174,6 +3174,13 @@
         <v>37</v>
       </c>
       <c r="AE61" s="23"/>
+      <c r="AG61" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH61" s="64"/>
+      <c r="AI61" s="64"/>
+      <c r="AJ61" s="64"/>
+      <c r="AK61" s="65"/>
     </row>
     <row r="62" spans="27:37" ht="21" x14ac:dyDescent="0.25">
       <c r="AA62" s="24" t="s">
@@ -3185,8 +3192,21 @@
       </c>
       <c r="AD62" s="22"/>
       <c r="AE62" s="22"/>
-    </row>
-    <row r="63" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI62" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ62" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK62" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="27:37" ht="51" x14ac:dyDescent="0.25">
       <c r="AA63" s="25" t="s">
         <v>29</v>
       </c>
@@ -3194,8 +3214,21 @@
       <c r="AC63" s="23"/>
       <c r="AD63" s="23"/>
       <c r="AE63" s="23"/>
-    </row>
-    <row r="64" spans="27:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="AG63" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH63" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI63" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ63" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK63" s="54"/>
+    </row>
+    <row r="64" spans="27:37" ht="68" x14ac:dyDescent="0.25">
       <c r="AA64" s="24" t="s">
         <v>30</v>
       </c>
@@ -3203,8 +3236,19 @@
       <c r="AC64" s="22"/>
       <c r="AD64" s="22"/>
       <c r="AE64" s="22"/>
-    </row>
-    <row r="65" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AG64" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ64" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK64" s="57"/>
+    </row>
+    <row r="65" spans="27:37" ht="68" x14ac:dyDescent="0.25">
       <c r="AA65" s="25" t="s">
         <v>31</v>
       </c>
@@ -3214,8 +3258,17 @@
       </c>
       <c r="AD65" s="23"/>
       <c r="AE65" s="23"/>
-    </row>
-    <row r="66" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AG65" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH65" s="54"/>
+      <c r="AI65" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ65" s="54"/>
+      <c r="AK65" s="54"/>
+    </row>
+    <row r="66" spans="27:37" ht="44" x14ac:dyDescent="0.25">
       <c r="AA66" s="24" t="s">
         <v>32</v>
       </c>
@@ -3227,8 +3280,17 @@
         <v>37</v>
       </c>
       <c r="AE66" s="22"/>
-    </row>
-    <row r="67" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AG66" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH66" s="57"/>
+      <c r="AI66" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ66" s="57"/>
+      <c r="AK66" s="58"/>
+    </row>
+    <row r="67" spans="27:37" ht="51" x14ac:dyDescent="0.25">
       <c r="AA67" s="25" t="s">
         <v>33</v>
       </c>
@@ -3238,8 +3300,17 @@
       </c>
       <c r="AD67" s="23"/>
       <c r="AE67" s="23"/>
-    </row>
-    <row r="68" spans="27:31" ht="21" x14ac:dyDescent="0.25">
+      <c r="AG67" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH67" s="54"/>
+      <c r="AI67" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ67" s="54"/>
+      <c r="AK67" s="54"/>
+    </row>
+    <row r="68" spans="27:37" ht="51" x14ac:dyDescent="0.25">
       <c r="AA68" s="29" t="s">
         <v>34</v>
       </c>
@@ -3249,10 +3320,55 @@
       </c>
       <c r="AD68" s="30"/>
       <c r="AE68" s="30"/>
+      <c r="AG68" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH68" s="57"/>
+      <c r="AI68" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ68" s="57"/>
+      <c r="AK68" s="57"/>
+    </row>
+    <row r="69" spans="27:37" ht="68" x14ac:dyDescent="0.2">
+      <c r="AG69" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH69" s="54"/>
+      <c r="AI69" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ69" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK69" s="54"/>
+    </row>
+    <row r="70" spans="27:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AG70" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH70" s="57"/>
+      <c r="AI70" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ70" s="57"/>
+      <c r="AK70" s="57"/>
+    </row>
+    <row r="71" spans="27:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AG71" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH71" s="61"/>
+      <c r="AI71" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ71" s="61"/>
+      <c r="AK71" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="AG44:AK44"/>
+    <mergeCell ref="AG61:AK61"/>
     <mergeCell ref="X27:AB27"/>
     <mergeCell ref="W27:W28"/>
     <mergeCell ref="D43:D44"/>

--- a/Project Management Sources/Curva d'urgenza.xlsx
+++ b/Project Management Sources/Curva d'urgenza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/UUX-Project/Project Management Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE24AEE-A7B5-F741-BFA5-16CAEBACC77A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8EDC49-4A7A-BE44-BD4B-956BF0B6EBF0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{ADA57D0C-6A8F-CD4A-974D-0AC0E7DFC66E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$AG$44:$AK$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$AG$43:$AK$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
   <si>
     <t>Utente</t>
   </si>
@@ -48,21 +48,6 @@
     <t>Efficienza</t>
   </si>
   <si>
-    <t>Federica</t>
-  </si>
-  <si>
-    <t>Michela</t>
-  </si>
-  <si>
-    <t>Daniele</t>
-  </si>
-  <si>
-    <t>Risultati attesi</t>
-  </si>
-  <si>
-    <t>Risultati reali</t>
-  </si>
-  <si>
     <t>Emozione</t>
   </si>
   <si>
@@ -85,18 +70,6 @@
   </si>
   <si>
     <t>Cosmetico</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
   </si>
   <si>
     <t>×</t>
@@ -205,13 +178,43 @@
   <si>
     <t>Manuale: modifica del singolo articolo
  eliminazione dello stesso</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Ilaria</t>
+  </si>
+  <si>
+    <t>Bianca</t>
+  </si>
+  <si>
+    <t>Risultati attesi adulti</t>
+  </si>
+  <si>
+    <t>Risultati reali adulti</t>
+  </si>
+  <si>
+    <t>Risultati attesi ragazze</t>
+  </si>
+  <si>
+    <t>Risultati reali ragazze</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +357,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -582,6 +604,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF70AD47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF70AD47"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF70AD47"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF70AD47"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -589,7 +677,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,9 +688,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,18 +712,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -646,9 +719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,6 +745,93 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,101 +841,105 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -926,25 +1087,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,28 +1117,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1431,7 +1592,516 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2000" b="1">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Curva d'urgenza - Franco</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1679247400230022E-2"/>
+          <c:y val="0.10550958139368172"/>
+          <c:w val="0.72013668574224143"/>
+          <c:h val="0.83055843424863696"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Curva d'urgenza</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$1:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4D1-7A42-8958-DA82B003D707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>E6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>4</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4D1-7A42-8958-DA82B003D707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="36423040"/>
+        <c:axId val="36350928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="36423040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36350928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="36350928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36423040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80980081978279295"/>
+          <c:y val="0.34716410483113141"/>
+          <c:w val="0.17695710969021328"/>
+          <c:h val="0.47054885268847141"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1987,20 +2657,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>249551</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>249552</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>401735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>797128</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>88217</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>64795</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>129592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2020,6 +3206,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>820614</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390769</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>727201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB512AC8-CB0D-074E-B856-88D13B175983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2325,23 +3549,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81C49A-D5AC-CE4A-8B37-F3201402E89F}">
-  <dimension ref="A1:AK71"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB59" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH64" sqref="AH64"/>
+    <sheetView tabSelected="1" topLeftCell="L51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X64" sqref="X64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2351,7 +3576,7 @@
     <col min="23" max="23" width="10.83203125" customWidth="1"/>
     <col min="24" max="24" width="20.5" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="13.83203125" customWidth="1"/>
-    <col min="27" max="27" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="14.83203125" customWidth="1"/>
     <col min="30" max="30" width="15" customWidth="1"/>
     <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -2363,1016 +3588,1230 @@
     <col min="43" max="45" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:28" ht="24" x14ac:dyDescent="0.3">
-      <c r="D27" s="44" t="s">
+    <row r="20" spans="4:29" ht="24">
+      <c r="D20" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="M20" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
+    </row>
+    <row r="21" spans="4:29" ht="21">
+      <c r="D21" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="78"/>
+      <c r="P21" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="78"/>
+      <c r="T21" s="75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" ht="30" customHeight="1">
+      <c r="D22" s="57"/>
+      <c r="E22" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="65"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="76"/>
+    </row>
+    <row r="23" spans="4:29" ht="35" customHeight="1">
+      <c r="D23" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="59">
+        <v>3</v>
+      </c>
+      <c r="F23" s="59">
+        <v>3</v>
+      </c>
+      <c r="G23" s="59">
+        <v>3</v>
+      </c>
+      <c r="H23" s="59">
+        <v>2</v>
+      </c>
+      <c r="I23" s="59">
+        <v>3</v>
+      </c>
+      <c r="J23" s="59">
+        <v>3</v>
+      </c>
+      <c r="K23" s="60">
+        <v>7</v>
+      </c>
+      <c r="M23" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="28">
+        <v>3</v>
+      </c>
+      <c r="O23" s="70">
+        <v>3</v>
+      </c>
+      <c r="P23" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="70">
+        <v>2</v>
+      </c>
+      <c r="R23" s="70">
+        <v>3</v>
+      </c>
+      <c r="S23" s="70">
+        <v>3</v>
+      </c>
+      <c r="T23" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" ht="35" customHeight="1">
+      <c r="D24" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="62">
+        <v>3</v>
+      </c>
+      <c r="F24" s="62">
+        <v>3</v>
+      </c>
+      <c r="G24" s="62">
+        <v>2</v>
+      </c>
+      <c r="H24" s="62">
+        <v>2</v>
+      </c>
+      <c r="I24" s="62">
+        <v>3</v>
+      </c>
+      <c r="J24" s="62">
+        <v>2</v>
+      </c>
+      <c r="K24" s="63">
+        <v>6</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="67">
+        <v>3</v>
+      </c>
+      <c r="O24" s="68">
+        <v>2</v>
+      </c>
+      <c r="P24" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>2</v>
+      </c>
+      <c r="R24" s="68">
+        <v>2</v>
+      </c>
+      <c r="S24" s="68">
+        <v>2</v>
+      </c>
+      <c r="T24" s="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29">
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="87"/>
+    </row>
+    <row r="26" spans="4:29">
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="87"/>
+    </row>
+    <row r="27" spans="4:29" ht="24">
+      <c r="D27" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="M27" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48"/>
+      <c r="W27" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="M27" s="44" t="s">
+      <c r="X27" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="42"/>
+    </row>
+    <row r="28" spans="4:29" ht="21">
+      <c r="D28" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="51"/>
+      <c r="G28" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="51"/>
+      <c r="P28" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" s="51"/>
+      <c r="T28" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" s="44"/>
+      <c r="X28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="43"/>
-      <c r="W27" s="38" t="s">
+      <c r="Z28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA28" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB28" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" ht="30" customHeight="1">
+      <c r="D29" s="57"/>
+      <c r="E29" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="65"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="65"/>
+      <c r="W29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="X27" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="37"/>
-    </row>
-    <row r="28" spans="4:28" ht="21" x14ac:dyDescent="0.2">
-      <c r="D28" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="45" t="s">
+    </row>
+    <row r="30" spans="4:29" ht="35" customHeight="1">
+      <c r="D30" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="59">
+        <v>3</v>
+      </c>
+      <c r="F30" s="59">
+        <v>2</v>
+      </c>
+      <c r="G30" s="59">
+        <v>2</v>
+      </c>
+      <c r="H30" s="59">
+        <v>2</v>
+      </c>
+      <c r="I30" s="59">
+        <v>3</v>
+      </c>
+      <c r="J30" s="59">
+        <v>2</v>
+      </c>
+      <c r="K30" s="60">
+        <v>6</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="59">
+        <v>3</v>
+      </c>
+      <c r="O30" s="59">
+        <v>2</v>
+      </c>
+      <c r="P30" s="59">
         <v>1</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="45" t="s">
+      <c r="Q30" s="59">
         <v>2</v>
       </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="45" t="s">
+      <c r="R30" s="59">
+        <v>2</v>
+      </c>
+      <c r="S30" s="59">
+        <v>2</v>
+      </c>
+      <c r="T30" s="60">
+        <v>6</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+    </row>
+    <row r="31" spans="4:29" ht="35" customHeight="1">
+      <c r="D31" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="62">
         <v>3</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="O28" s="46"/>
-      <c r="P28" s="45" t="s">
+      <c r="F31" s="62">
+        <v>3</v>
+      </c>
+      <c r="G31" s="62">
+        <v>3</v>
+      </c>
+      <c r="H31" s="62">
         <v>2</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="45" t="s">
+      <c r="I31" s="62">
         <v>3</v>
       </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y28" s="9" t="s">
+      <c r="J31" s="62">
+        <v>3</v>
+      </c>
+      <c r="K31" s="63">
+        <v>7</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="62">
+        <v>3</v>
+      </c>
+      <c r="O31" s="62">
+        <v>3</v>
+      </c>
+      <c r="P31" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="62">
+        <v>2</v>
+      </c>
+      <c r="R31" s="62">
+        <v>3</v>
+      </c>
+      <c r="S31" s="62">
+        <v>3</v>
+      </c>
+      <c r="T31" s="63">
+        <v>7</v>
+      </c>
+      <c r="V31" s="90"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="90"/>
+    </row>
+    <row r="34" spans="4:37" ht="24">
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+    </row>
+    <row r="35" spans="4:37" ht="21">
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+    </row>
+    <row r="36" spans="4:37" ht="21">
+      <c r="D36" s="86"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="86"/>
+    </row>
+    <row r="37" spans="4:37" ht="21">
+      <c r="D37" s="80"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+    </row>
+    <row r="38" spans="4:37" ht="21">
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="4:37" ht="21">
+      <c r="D39" s="80"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+    </row>
+    <row r="40" spans="4:37">
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+    </row>
+    <row r="42" spans="4:37" ht="24">
+      <c r="D42" s="45"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="4:37" ht="21" customHeight="1">
+      <c r="D43" s="46"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8"/>
+      <c r="AA43" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="56"/>
+      <c r="AG43" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="40"/>
+    </row>
+    <row r="44" spans="4:37" ht="21">
+      <c r="D44" s="9"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="5"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Z28" s="9" t="s">
+      <c r="AC44" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA28" s="9" t="s">
+      <c r="AD44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AB28" s="9" t="s">
+      <c r="AE44" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="4:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="50"/>
-      <c r="E29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="48"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="48"/>
-      <c r="W29" s="18" t="s">
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI44" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ44" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK44" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="4:37" ht="66" customHeight="1">
+      <c r="D45" s="10"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="4"/>
+      <c r="AA45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC45" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE45" s="16"/>
+      <c r="AG45" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH45" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI45" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ45" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK45" s="29"/>
+    </row>
+    <row r="46" spans="4:37" ht="68" customHeight="1">
+      <c r="D46" s="11"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="6"/>
+      <c r="AA46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19" t="s">
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE46" s="17"/>
+      <c r="AG46" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ46" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK46" s="32"/>
+    </row>
+    <row r="47" spans="4:37" ht="68" customHeight="1">
+      <c r="AA47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AG47" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+    </row>
+    <row r="48" spans="4:37" ht="85" customHeight="1">
+      <c r="AA48" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE48" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG48" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH48" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI48" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ48" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK48" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="24:37" ht="51">
+      <c r="AA49" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB49" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC49" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AG49" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH49" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI49" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
+    </row>
+    <row r="50" spans="24:37" ht="51">
+      <c r="AA50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+      <c r="AG50" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="32"/>
+    </row>
+    <row r="51" spans="24:37" ht="68">
+      <c r="AA51" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-    </row>
-    <row r="30" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3</v>
-      </c>
-      <c r="J30" s="1">
-        <v>3</v>
-      </c>
-      <c r="K30" s="6">
-        <v>7</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="1">
-        <v>3</v>
-      </c>
-      <c r="O30" s="1">
-        <v>3</v>
-      </c>
-      <c r="P30" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>2</v>
-      </c>
-      <c r="R30" s="1">
-        <v>3</v>
-      </c>
-      <c r="S30" s="1">
-        <v>2</v>
-      </c>
-      <c r="T30" s="6">
-        <v>7</v>
-      </c>
-      <c r="W30" s="1" t="s">
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD51" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE51" s="16"/>
+      <c r="AG51" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ51" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK51" s="29"/>
+    </row>
+    <row r="52" spans="24:37" ht="51">
+      <c r="AA52" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD52" s="17"/>
+      <c r="AE52" s="17"/>
+      <c r="AG52" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH52" s="32"/>
+      <c r="AI52" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ52" s="32"/>
+      <c r="AK52" s="32"/>
+    </row>
+    <row r="53" spans="24:37" ht="34">
+      <c r="X53">
+        <v>0.6</v>
+      </c>
+      <c r="AA53" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB53" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC53" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD53" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE53" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG53" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH53" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI53" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ53" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK53" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="24:37">
+      <c r="X54">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="24:37" ht="21">
+      <c r="AA57" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="56"/>
+    </row>
+    <row r="58" spans="24:37" ht="21">
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC58" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE58" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="24:37" ht="21">
+      <c r="AA59" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB59" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC59" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD59" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE59" s="16"/>
+    </row>
+    <row r="60" spans="24:37" ht="21">
+      <c r="AA60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD60" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE60" s="17"/>
+      <c r="AG60" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="39"/>
+      <c r="AK60" s="40"/>
+    </row>
+    <row r="61" spans="24:37" ht="21">
+      <c r="AA61" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI61" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ61" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK61" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="24:37" ht="51">
+      <c r="AA62" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20" t="s">
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AG62" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH62" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI62" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ62" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK62" s="29"/>
+    </row>
+    <row r="63" spans="24:37" ht="68">
+      <c r="AA63" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AG63" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ63" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK63" s="32"/>
+    </row>
+    <row r="64" spans="24:37" ht="68">
+      <c r="AA64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AG64" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH64" s="29"/>
+      <c r="AI64" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ64" s="29"/>
+      <c r="AK64" s="29"/>
+    </row>
+    <row r="65" spans="27:37" ht="44">
+      <c r="AA65" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AB30" s="20"/>
-    </row>
-    <row r="31" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>3</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>3</v>
-      </c>
-      <c r="J31" s="2">
-        <v>2</v>
-      </c>
-      <c r="K31" s="5">
-        <v>6</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" s="2">
-        <v>3</v>
-      </c>
-      <c r="O31" s="2">
-        <v>2</v>
-      </c>
-      <c r="P31" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2">
-        <v>3</v>
-      </c>
-      <c r="S31" s="2">
-        <v>2</v>
-      </c>
-      <c r="T31" s="5">
-        <v>6</v>
-      </c>
-      <c r="W31" s="18" t="s">
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD65" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE65" s="16"/>
+      <c r="AG65" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH65" s="32"/>
+      <c r="AI65" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ65" s="32"/>
+      <c r="AK65" s="33"/>
+    </row>
+    <row r="66" spans="27:37" ht="51">
+      <c r="AA66" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AG66" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19" t="s">
+      <c r="AH66" s="29"/>
+      <c r="AI66" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="29"/>
+    </row>
+    <row r="67" spans="27:37" ht="51">
+      <c r="AA67" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AG67" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH67" s="32"/>
+      <c r="AI67" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ67" s="32"/>
+      <c r="AK67" s="32"/>
+    </row>
+    <row r="68" spans="27:37" ht="68">
+      <c r="AG68" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-    </row>
-    <row r="32" spans="4:28" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="7">
-        <v>5</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1</v>
-      </c>
-      <c r="T32" s="7">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-    </row>
-    <row r="35" spans="4:37" ht="24" x14ac:dyDescent="0.3">
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="4:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="4:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="D37" s="35"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="4:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="4:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="D39" s="16"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="4:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="43" spans="4:37" ht="24" x14ac:dyDescent="0.3">
-      <c r="D43" s="40"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="43"/>
-    </row>
-    <row r="44" spans="4:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="41"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="9"/>
-      <c r="AA44" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="33"/>
-      <c r="AG44" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="64"/>
-      <c r="AJ44" s="64"/>
-      <c r="AK44" s="65"/>
-    </row>
-    <row r="45" spans="4:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="D45" s="10"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="6"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="27" t="s">
+      <c r="AH68" s="29"/>
+      <c r="AI68" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ68" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK68" s="29"/>
+    </row>
+    <row r="69" spans="27:37" ht="51">
+      <c r="AG69" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AC45" s="27" t="s">
+      <c r="AH69" s="32"/>
+      <c r="AI69" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ69" s="32"/>
+      <c r="AK69" s="32"/>
+    </row>
+    <row r="70" spans="27:37" ht="34">
+      <c r="AG70" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AD45" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE45" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG45" s="51"/>
-      <c r="AH45" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI45" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ45" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK45" s="52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="4:37" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="11"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="5"/>
-      <c r="AA46" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB46" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC46" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD46" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE46" s="22"/>
-      <c r="AG46" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH46" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI46" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ46" s="54" t="s">
+      <c r="AH70" s="36"/>
+      <c r="AI70" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AK46" s="54"/>
-    </row>
-    <row r="47" spans="4:37" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="12"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="7"/>
-      <c r="AA47" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD47" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE47" s="23"/>
-      <c r="AG47" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH47" s="57"/>
-      <c r="AI47" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ47" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK47" s="57"/>
-    </row>
-    <row r="48" spans="4:37" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AA48" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AG48" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH48" s="54"/>
-      <c r="AI48" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ48" s="54"/>
-      <c r="AK48" s="54"/>
-    </row>
-    <row r="49" spans="27:37" ht="85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AA49" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG49" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH49" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI49" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ49" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK49" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="27:37" ht="51" x14ac:dyDescent="0.25">
-      <c r="AA50" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB50" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC50" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AG50" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH50" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI50" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ50" s="54"/>
-      <c r="AK50" s="54"/>
-    </row>
-    <row r="51" spans="27:37" ht="51" x14ac:dyDescent="0.25">
-      <c r="AA51" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD51" s="23"/>
-      <c r="AE51" s="23"/>
-      <c r="AG51" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ51" s="57"/>
-      <c r="AK51" s="57"/>
-    </row>
-    <row r="52" spans="27:37" ht="68" x14ac:dyDescent="0.25">
-      <c r="AA52" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD52" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE52" s="22"/>
-      <c r="AG52" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH52" s="54"/>
-      <c r="AI52" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ52" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK52" s="54"/>
-    </row>
-    <row r="53" spans="27:37" ht="51" x14ac:dyDescent="0.25">
-      <c r="AA53" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="23"/>
-      <c r="AG53" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ53" s="57"/>
-      <c r="AK53" s="57"/>
-    </row>
-    <row r="54" spans="27:37" ht="34" x14ac:dyDescent="0.25">
-      <c r="AA54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB54" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC54" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD54" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE54" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG54" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH54" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI54" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ54" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK54" s="61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="27:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="AA58" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB58" s="32"/>
-      <c r="AC58" s="32"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="33"/>
-    </row>
-    <row r="59" spans="27:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC59" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD59" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE59" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="27:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="AA60" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB60" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC60" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD60" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE60" s="22"/>
-    </row>
-    <row r="61" spans="27:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="AA61" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB61" s="23"/>
-      <c r="AC61" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD61" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE61" s="23"/>
-      <c r="AG61" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH61" s="64"/>
-      <c r="AI61" s="64"/>
-      <c r="AJ61" s="64"/>
-      <c r="AK61" s="65"/>
-    </row>
-    <row r="62" spans="27:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="AA62" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD62" s="22"/>
-      <c r="AE62" s="22"/>
-      <c r="AG62" s="51"/>
-      <c r="AH62" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI62" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ62" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK62" s="52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="27:37" ht="51" x14ac:dyDescent="0.25">
-      <c r="AA63" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="23"/>
-      <c r="AD63" s="23"/>
-      <c r="AE63" s="23"/>
-      <c r="AG63" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH63" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI63" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ63" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK63" s="54"/>
-    </row>
-    <row r="64" spans="27:37" ht="68" x14ac:dyDescent="0.25">
-      <c r="AA64" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AG64" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH64" s="57"/>
-      <c r="AI64" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ64" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK64" s="57"/>
-    </row>
-    <row r="65" spans="27:37" ht="68" x14ac:dyDescent="0.25">
-      <c r="AA65" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB65" s="23"/>
-      <c r="AC65" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD65" s="23"/>
-      <c r="AE65" s="23"/>
-      <c r="AG65" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH65" s="54"/>
-      <c r="AI65" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ65" s="54"/>
-      <c r="AK65" s="54"/>
-    </row>
-    <row r="66" spans="27:37" ht="44" x14ac:dyDescent="0.25">
-      <c r="AA66" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD66" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE66" s="22"/>
-      <c r="AG66" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH66" s="57"/>
-      <c r="AI66" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ66" s="57"/>
-      <c r="AK66" s="58"/>
-    </row>
-    <row r="67" spans="27:37" ht="51" x14ac:dyDescent="0.25">
-      <c r="AA67" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB67" s="23"/>
-      <c r="AC67" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD67" s="23"/>
-      <c r="AE67" s="23"/>
-      <c r="AG67" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH67" s="54"/>
-      <c r="AI67" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ67" s="54"/>
-      <c r="AK67" s="54"/>
-    </row>
-    <row r="68" spans="27:37" ht="51" x14ac:dyDescent="0.25">
-      <c r="AA68" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD68" s="30"/>
-      <c r="AE68" s="30"/>
-      <c r="AG68" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH68" s="57"/>
-      <c r="AI68" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ68" s="57"/>
-      <c r="AK68" s="57"/>
-    </row>
-    <row r="69" spans="27:37" ht="68" x14ac:dyDescent="0.2">
-      <c r="AG69" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH69" s="54"/>
-      <c r="AI69" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ69" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK69" s="54"/>
-    </row>
-    <row r="70" spans="27:37" ht="51" x14ac:dyDescent="0.2">
-      <c r="AG70" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH70" s="57"/>
-      <c r="AI70" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ70" s="57"/>
-      <c r="AK70" s="57"/>
-    </row>
-    <row r="71" spans="27:37" ht="34" x14ac:dyDescent="0.2">
-      <c r="AG71" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH71" s="61"/>
-      <c r="AI71" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ71" s="61"/>
-      <c r="AK71" s="61"/>
+      <c r="AJ70" s="36"/>
+      <c r="AK70" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AG44:AK44"/>
-    <mergeCell ref="AG61:AK61"/>
+  <mergeCells count="33">
+    <mergeCell ref="M25:T26"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="AA43:AE43"/>
+    <mergeCell ref="AA57:AE57"/>
+    <mergeCell ref="AG43:AK43"/>
+    <mergeCell ref="AG60:AK60"/>
     <mergeCell ref="X27:AB27"/>
     <mergeCell ref="W27:W28"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:K42"/>
     <mergeCell ref="D27:K27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
@@ -3383,16 +4822,6 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="AA58:AE58"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Project Management Sources/Curva d'urgenza.xlsx
+++ b/Project Management Sources/Curva d'urgenza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MatteoMarchesini/UUX-Project/Project Management Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8EDC49-4A7A-BE44-BD4B-956BF0B6EBF0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F554517-4FF0-764D-B8A3-1C635DA83FC3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="15020" xr2:uid="{ADA57D0C-6A8F-CD4A-974D-0AC0E7DFC66E}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,6 +304,27 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -677,43 +698,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,66 +772,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -865,9 +793,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,27 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,17 +832,118 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3551,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81C49A-D5AC-CE4A-8B37-F3201402E89F}">
   <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X64" sqref="X64"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3661,882 +3666,907 @@
       </c>
     </row>
     <row r="20" spans="4:29" ht="24">
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="M20" s="72" t="s">
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="M20" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="74"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="56"/>
     </row>
     <row r="21" spans="4:29" ht="21">
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="50" t="s">
+      <c r="F21" s="67"/>
+      <c r="G21" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="50" t="s">
+      <c r="H21" s="67"/>
+      <c r="I21" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52" t="s">
+      <c r="J21" s="67"/>
+      <c r="K21" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="75" t="s">
+      <c r="M21" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="77" t="s">
+      <c r="N21" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="78"/>
-      <c r="P21" s="77" t="s">
+      <c r="O21" s="60"/>
+      <c r="P21" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="77" t="s">
+      <c r="Q21" s="60"/>
+      <c r="R21" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="78"/>
-      <c r="T21" s="75" t="s">
+      <c r="S21" s="60"/>
+      <c r="T21" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="4:29" ht="30" customHeight="1">
-      <c r="D22" s="57"/>
-      <c r="E22" s="64" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="67" t="s">
+      <c r="K22" s="69"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="68" t="s">
+      <c r="O22" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="68" t="s">
+      <c r="P22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="68" t="s">
+      <c r="Q22" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="68" t="s">
+      <c r="R22" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="68" t="s">
+      <c r="S22" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="76"/>
+      <c r="T22" s="58"/>
     </row>
     <row r="23" spans="4:29" ht="35" customHeight="1">
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="28">
         <v>3</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="28">
         <v>3</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="28">
         <v>3</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="28">
         <v>2</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="28">
         <v>3</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="28">
         <v>3</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="29">
         <v>7</v>
       </c>
-      <c r="M23" s="69" t="s">
+      <c r="M23" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="17">
         <v>3</v>
       </c>
-      <c r="O23" s="70">
+      <c r="O23" s="38">
         <v>3</v>
       </c>
-      <c r="P23" s="70">
+      <c r="P23" s="38">
         <v>2</v>
       </c>
-      <c r="Q23" s="70">
+      <c r="Q23" s="38">
         <v>2</v>
       </c>
-      <c r="R23" s="70">
+      <c r="R23" s="38">
         <v>3</v>
       </c>
-      <c r="S23" s="70">
+      <c r="S23" s="38">
         <v>3</v>
       </c>
-      <c r="T23" s="70">
+      <c r="T23" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="4:29" ht="35" customHeight="1">
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="31">
         <v>3</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="31">
         <v>3</v>
       </c>
-      <c r="G24" s="62">
+      <c r="G24" s="31">
         <v>2</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="31">
         <v>2</v>
       </c>
-      <c r="I24" s="62">
+      <c r="I24" s="31">
         <v>3</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="31">
         <v>2</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="32">
         <v>6</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="N24" s="67">
+      <c r="N24" s="35">
         <v>3</v>
       </c>
-      <c r="O24" s="68">
+      <c r="O24" s="36">
         <v>2</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="36">
         <v>1</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="36">
         <v>2</v>
       </c>
-      <c r="R24" s="68">
+      <c r="R24" s="36">
         <v>2</v>
       </c>
-      <c r="S24" s="68">
+      <c r="S24" s="36">
         <v>2</v>
       </c>
-      <c r="T24" s="68">
+      <c r="T24" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="4:29">
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="87"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="48"/>
     </row>
     <row r="26" spans="4:29">
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="87"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="48"/>
     </row>
     <row r="27" spans="4:29" ht="24">
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="M27" s="49" t="s">
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="M27" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="48"/>
-      <c r="W27" s="43" t="s">
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="63"/>
+      <c r="W27" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="X27" s="41" t="s">
+      <c r="X27" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="42"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="77"/>
     </row>
     <row r="28" spans="4:29" ht="21">
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="50" t="s">
+      <c r="F28" s="67"/>
+      <c r="G28" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="50" t="s">
+      <c r="H28" s="67"/>
+      <c r="I28" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="52" t="s">
+      <c r="J28" s="67"/>
+      <c r="K28" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="51"/>
-      <c r="P28" s="50" t="s">
+      <c r="O28" s="67"/>
+      <c r="P28" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="50" t="s">
+      <c r="Q28" s="67"/>
+      <c r="R28" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="51"/>
-      <c r="T28" s="52" t="s">
+      <c r="S28" s="67"/>
+      <c r="T28" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="W28" s="44"/>
-      <c r="X28" s="25" t="s">
+      <c r="W28" s="79"/>
+      <c r="X28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Y28" s="25" t="s">
+      <c r="Y28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Z28" s="25" t="s">
+      <c r="Z28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AA28" s="25" t="s">
+      <c r="AA28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AB28" s="25" t="s">
+      <c r="AB28" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="4:29" ht="30" customHeight="1">
-      <c r="D29" s="57"/>
-      <c r="E29" s="64" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="64" t="s">
+      <c r="I29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="64" t="s">
+      <c r="J29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="65"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="66" t="s">
+      <c r="K29" s="69"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="66" t="s">
+      <c r="O29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="66" t="s">
+      <c r="P29" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="66" t="s">
+      <c r="Q29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="66" t="s">
+      <c r="R29" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="66" t="s">
+      <c r="S29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="65"/>
-      <c r="W29" s="13" t="s">
+      <c r="T29" s="69"/>
+      <c r="W29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14" t="s">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="4:29" ht="35" customHeight="1">
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="28">
         <v>3</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="28">
         <v>2</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="28">
         <v>2</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="28">
         <v>2</v>
       </c>
-      <c r="I30" s="59">
+      <c r="I30" s="28">
         <v>3</v>
       </c>
-      <c r="J30" s="59">
+      <c r="J30" s="28">
         <v>2</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="29">
         <v>6</v>
       </c>
-      <c r="M30" s="58" t="s">
+      <c r="M30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="59">
+      <c r="N30" s="28">
         <v>3</v>
       </c>
-      <c r="O30" s="59">
+      <c r="O30" s="28">
         <v>2</v>
       </c>
-      <c r="P30" s="59">
+      <c r="P30" s="28">
         <v>1</v>
       </c>
-      <c r="Q30" s="59">
+      <c r="Q30" s="28">
         <v>2</v>
       </c>
-      <c r="R30" s="59">
+      <c r="R30" s="28">
         <v>2</v>
       </c>
-      <c r="S30" s="59">
+      <c r="S30" s="28">
         <v>2</v>
       </c>
-      <c r="T30" s="60">
+      <c r="T30" s="29">
         <v>6</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="W30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15" t="s">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="4:29" ht="35" customHeight="1">
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="31">
         <v>3</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="31">
         <v>3</v>
       </c>
-      <c r="G31" s="62">
+      <c r="G31" s="31">
         <v>3</v>
       </c>
-      <c r="H31" s="62">
+      <c r="H31" s="31">
         <v>2</v>
       </c>
-      <c r="I31" s="62">
+      <c r="I31" s="31">
         <v>3</v>
       </c>
-      <c r="J31" s="62">
+      <c r="J31" s="31">
         <v>3</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="32">
         <v>7</v>
       </c>
-      <c r="M31" s="61" t="s">
+      <c r="M31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="62">
+      <c r="N31" s="31">
         <v>3</v>
       </c>
-      <c r="O31" s="62">
+      <c r="O31" s="31">
         <v>3</v>
       </c>
-      <c r="P31" s="62">
+      <c r="P31" s="31">
         <v>2</v>
       </c>
-      <c r="Q31" s="62">
+      <c r="Q31" s="31">
         <v>2</v>
       </c>
-      <c r="R31" s="62">
+      <c r="R31" s="31">
         <v>3</v>
       </c>
-      <c r="S31" s="62">
+      <c r="S31" s="31">
         <v>3</v>
       </c>
-      <c r="T31" s="63">
+      <c r="T31" s="32">
         <v>7</v>
       </c>
-      <c r="V31" s="90"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="90"/>
-    </row>
-    <row r="34" spans="4:37" ht="24">
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-    </row>
-    <row r="35" spans="4:37" ht="21">
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-    </row>
-    <row r="36" spans="4:37" ht="21">
-      <c r="D36" s="86"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="86"/>
-    </row>
-    <row r="37" spans="4:37" ht="21">
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-    </row>
-    <row r="38" spans="4:37" ht="21">
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="79"/>
-    </row>
-    <row r="39" spans="4:37" ht="21">
-      <c r="D39" s="80"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-    </row>
-    <row r="40" spans="4:37">
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-    </row>
-    <row r="42" spans="4:37" ht="24">
-      <c r="D42" s="45"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="4:37" ht="21" customHeight="1">
-      <c r="D43" s="46"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
-      <c r="AA43" s="54" t="s">
+      <c r="V31" s="49"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="49"/>
+    </row>
+    <row r="34" spans="3:37" ht="24">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+    </row>
+    <row r="35" spans="3:37" ht="21">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="3:37" ht="21">
+      <c r="D36" s="47"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37" spans="3:37" ht="21">
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+    </row>
+    <row r="38" spans="3:37" ht="21">
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="40"/>
+    </row>
+    <row r="39" spans="3:37" ht="21">
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+    </row>
+    <row r="40" spans="3:37">
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+    </row>
+    <row r="41" spans="3:37">
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+    </row>
+    <row r="42" spans="3:37" ht="24">
+      <c r="C42" s="80"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+    </row>
+    <row r="43" spans="3:37" ht="21" customHeight="1">
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="AA43" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="56"/>
-      <c r="AG43" s="38" t="s">
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="72"/>
+      <c r="AG43" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AH43" s="39"/>
-      <c r="AI43" s="39"/>
-      <c r="AJ43" s="39"/>
-      <c r="AK43" s="40"/>
-    </row>
-    <row r="44" spans="4:37" ht="21">
-      <c r="D44" s="9"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="5"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="21" t="s">
+      <c r="AH43" s="74"/>
+      <c r="AI43" s="74"/>
+      <c r="AJ43" s="74"/>
+      <c r="AK43" s="75"/>
+    </row>
+    <row r="44" spans="3:37" ht="21">
+      <c r="C44" s="80"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC44" s="21" t="s">
+      <c r="AC44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AD44" s="21" t="s">
+      <c r="AD44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AE44" s="21" t="s">
+      <c r="AE44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="27" t="s">
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AI44" s="27" t="s">
+      <c r="AI44" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AJ44" s="27" t="s">
+      <c r="AJ44" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AK44" s="27" t="s">
+      <c r="AK44" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="4:37" ht="66" customHeight="1">
-      <c r="D45" s="10"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="4"/>
-      <c r="AA45" s="18" t="s">
+    <row r="45" spans="3:37" ht="66" customHeight="1">
+      <c r="C45" s="80"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="84"/>
+      <c r="AA45" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB45" s="16" t="s">
+      <c r="AB45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC45" s="22" t="s">
+      <c r="AC45" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD45" s="16" t="s">
+      <c r="AD45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE45" s="16"/>
-      <c r="AG45" s="28" t="s">
+      <c r="AE45" s="5"/>
+      <c r="AG45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AH45" s="29" t="s">
+      <c r="AH45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AI45" s="30" t="s">
+      <c r="AI45" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AJ45" s="29" t="s">
+      <c r="AJ45" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AK45" s="29"/>
-    </row>
-    <row r="46" spans="4:37" ht="68" customHeight="1">
-      <c r="D46" s="11"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="6"/>
-      <c r="AA46" s="19" t="s">
+      <c r="AK45" s="18"/>
+    </row>
+    <row r="46" spans="3:37" ht="68" customHeight="1">
+      <c r="C46" s="80"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="AA46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17" t="s">
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD46" s="17" t="s">
+      <c r="AD46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="17"/>
-      <c r="AG46" s="31" t="s">
+      <c r="AE46" s="6"/>
+      <c r="AG46" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="33" t="s">
+      <c r="AH46" s="21"/>
+      <c r="AI46" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ46" s="33" t="s">
+      <c r="AJ46" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AK46" s="32"/>
-    </row>
-    <row r="47" spans="4:37" ht="68" customHeight="1">
-      <c r="AA47" s="18" t="s">
+      <c r="AK46" s="21"/>
+    </row>
+    <row r="47" spans="3:37" ht="68" customHeight="1">
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="AA47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB47" s="16"/>
-      <c r="AC47" s="16" t="s">
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD47" s="16"/>
-      <c r="AE47" s="16"/>
-      <c r="AG47" s="28" t="s">
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AG47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="30" t="s">
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-    </row>
-    <row r="48" spans="4:37" ht="85" customHeight="1">
-      <c r="AA48" s="19" t="s">
+      <c r="AJ47" s="18"/>
+      <c r="AK47" s="18"/>
+    </row>
+    <row r="48" spans="3:37" ht="85" customHeight="1">
+      <c r="AA48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AB48" s="17" t="s">
+      <c r="AB48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AC48" s="17" t="s">
+      <c r="AC48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD48" s="17" t="s">
+      <c r="AD48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE48" s="17" t="s">
+      <c r="AE48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AG48" s="34" t="s">
+      <c r="AG48" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AH48" s="32" t="s">
+      <c r="AH48" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI48" s="33" t="s">
+      <c r="AI48" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AJ48" s="32" t="s">
+      <c r="AJ48" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AK48" s="33" t="s">
+      <c r="AK48" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="24:37" ht="51">
-      <c r="AA49" s="18" t="s">
+      <c r="AA49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB49" s="16" t="s">
+      <c r="AB49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC49" s="16" t="s">
+      <c r="AC49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD49" s="16"/>
-      <c r="AE49" s="16"/>
-      <c r="AG49" s="28" t="s">
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AG49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AH49" s="29" t="s">
+      <c r="AH49" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AI49" s="30" t="s">
+      <c r="AI49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="29"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
     </row>
     <row r="50" spans="24:37" ht="51">
-      <c r="AA50" s="19" t="s">
+      <c r="AA50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17" t="s">
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AG50" s="31" t="s">
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AG50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="33" t="s">
+      <c r="AH50" s="21"/>
+      <c r="AI50" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AJ50" s="32"/>
-      <c r="AK50" s="32"/>
+      <c r="AJ50" s="21"/>
+      <c r="AK50" s="21"/>
     </row>
     <row r="51" spans="24:37" ht="68">
-      <c r="AA51" s="18" t="s">
+      <c r="AA51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AB51" s="16"/>
-      <c r="AC51" s="16" t="s">
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD51" s="16" t="s">
+      <c r="AD51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE51" s="16"/>
-      <c r="AG51" s="28" t="s">
+      <c r="AE51" s="5"/>
+      <c r="AG51" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="30" t="s">
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AJ51" s="29" t="s">
+      <c r="AJ51" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AK51" s="29"/>
+      <c r="AK51" s="18"/>
     </row>
     <row r="52" spans="24:37" ht="51">
-      <c r="AA52" s="19" t="s">
+      <c r="AA52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17" t="s">
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AG52" s="31" t="s">
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AG52" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AH52" s="32"/>
-      <c r="AI52" s="33" t="s">
+      <c r="AH52" s="21"/>
+      <c r="AI52" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AJ52" s="32"/>
-      <c r="AK52" s="32"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="21"/>
     </row>
     <row r="53" spans="24:37" ht="34">
       <c r="X53">
         <v>0.6</v>
       </c>
-      <c r="AA53" s="23" t="s">
+      <c r="AA53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AB53" s="24" t="s">
+      <c r="AB53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AC53" s="24" t="s">
+      <c r="AC53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AD53" s="24" t="s">
+      <c r="AD53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AE53" s="24" t="s">
+      <c r="AE53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AG53" s="35" t="s">
+      <c r="AG53" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AH53" s="36" t="s">
+      <c r="AH53" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AI53" s="37" t="s">
+      <c r="AI53" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AJ53" s="36" t="s">
+      <c r="AJ53" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AK53" s="36" t="s">
+      <c r="AK53" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4546,272 +4576,252 @@
       </c>
     </row>
     <row r="57" spans="24:37" ht="21">
-      <c r="AA57" s="54" t="s">
+      <c r="AA57" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="56"/>
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="72"/>
     </row>
     <row r="58" spans="24:37" ht="21">
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="21" t="s">
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC58" s="21" t="s">
+      <c r="AC58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AD58" s="21" t="s">
+      <c r="AD58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AE58" s="21" t="s">
+      <c r="AE58" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="24:37" ht="21">
-      <c r="AA59" s="18" t="s">
+      <c r="AA59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB59" s="16" t="s">
+      <c r="AB59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC59" s="22" t="s">
+      <c r="AC59" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD59" s="16" t="s">
+      <c r="AD59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE59" s="16"/>
+      <c r="AE59" s="5"/>
     </row>
     <row r="60" spans="24:37" ht="21">
-      <c r="AA60" s="19" t="s">
+      <c r="AA60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB60" s="17"/>
-      <c r="AC60" s="17" t="s">
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD60" s="17" t="s">
+      <c r="AD60" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE60" s="17"/>
-      <c r="AG60" s="38" t="s">
+      <c r="AE60" s="6"/>
+      <c r="AG60" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="40"/>
+      <c r="AH60" s="74"/>
+      <c r="AI60" s="74"/>
+      <c r="AJ60" s="74"/>
+      <c r="AK60" s="75"/>
     </row>
     <row r="61" spans="24:37" ht="21">
-      <c r="AA61" s="18" t="s">
+      <c r="AA61" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16" t="s">
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="16"/>
-      <c r="AG61" s="26"/>
-      <c r="AH61" s="27" t="s">
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AG61" s="15"/>
+      <c r="AH61" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AI61" s="27" t="s">
+      <c r="AI61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AJ61" s="27" t="s">
+      <c r="AJ61" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AK61" s="27" t="s">
+      <c r="AK61" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="24:37" ht="51">
-      <c r="AA62" s="19" t="s">
+      <c r="AA62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AB62" s="17"/>
-      <c r="AC62" s="17"/>
-      <c r="AD62" s="17"/>
-      <c r="AE62" s="17"/>
-      <c r="AG62" s="28" t="s">
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AG62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AH62" s="29" t="s">
+      <c r="AH62" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AI62" s="30" t="s">
+      <c r="AI62" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AJ62" s="29" t="s">
+      <c r="AJ62" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AK62" s="29"/>
+      <c r="AK62" s="18"/>
     </row>
     <row r="63" spans="24:37" ht="68">
-      <c r="AA63" s="18" t="s">
+      <c r="AA63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB63" s="16"/>
-      <c r="AC63" s="16"/>
-      <c r="AD63" s="16"/>
-      <c r="AE63" s="16"/>
-      <c r="AG63" s="31" t="s">
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AG63" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="33" t="s">
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ63" s="33" t="s">
+      <c r="AJ63" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AK63" s="32"/>
+      <c r="AK63" s="21"/>
     </row>
     <row r="64" spans="24:37" ht="68">
-      <c r="AA64" s="19" t="s">
+      <c r="AA64" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="17" t="s">
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="17"/>
-      <c r="AG64" s="28" t="s">
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AG64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AH64" s="29"/>
-      <c r="AI64" s="30" t="s">
+      <c r="AH64" s="18"/>
+      <c r="AI64" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AJ64" s="29"/>
-      <c r="AK64" s="29"/>
+      <c r="AJ64" s="18"/>
+      <c r="AK64" s="18"/>
     </row>
     <row r="65" spans="27:37" ht="44">
-      <c r="AA65" s="18" t="s">
+      <c r="AA65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16" t="s">
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD65" s="16" t="s">
+      <c r="AD65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE65" s="16"/>
-      <c r="AG65" s="34" t="s">
+      <c r="AE65" s="5"/>
+      <c r="AG65" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AH65" s="32"/>
-      <c r="AI65" s="33" t="s">
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AJ65" s="32"/>
-      <c r="AK65" s="33"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="22"/>
     </row>
     <row r="66" spans="27:37" ht="51">
-      <c r="AA66" s="19" t="s">
+      <c r="AA66" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="17" t="s">
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD66" s="17"/>
-      <c r="AE66" s="17"/>
-      <c r="AG66" s="28" t="s">
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AG66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AH66" s="29"/>
-      <c r="AI66" s="30" t="s">
+      <c r="AH66" s="18"/>
+      <c r="AI66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AJ66" s="29"/>
-      <c r="AK66" s="29"/>
+      <c r="AJ66" s="18"/>
+      <c r="AK66" s="18"/>
     </row>
     <row r="67" spans="27:37" ht="51">
-      <c r="AA67" s="23" t="s">
+      <c r="AA67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24" t="s">
+      <c r="AB67" s="13"/>
+      <c r="AC67" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AG67" s="31" t="s">
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="13"/>
+      <c r="AG67" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AH67" s="32"/>
-      <c r="AI67" s="33" t="s">
+      <c r="AH67" s="21"/>
+      <c r="AI67" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AJ67" s="32"/>
-      <c r="AK67" s="32"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="21"/>
     </row>
     <row r="68" spans="27:37" ht="68">
-      <c r="AG68" s="28" t="s">
+      <c r="AG68" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AH68" s="29"/>
-      <c r="AI68" s="30" t="s">
+      <c r="AH68" s="18"/>
+      <c r="AI68" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AJ68" s="29" t="s">
+      <c r="AJ68" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AK68" s="29"/>
+      <c r="AK68" s="18"/>
     </row>
     <row r="69" spans="27:37" ht="51">
-      <c r="AG69" s="31" t="s">
+      <c r="AG69" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AH69" s="32"/>
-      <c r="AI69" s="33" t="s">
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AJ69" s="32"/>
-      <c r="AK69" s="32"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="21"/>
     </row>
     <row r="70" spans="27:37" ht="34">
-      <c r="AG70" s="35" t="s">
+      <c r="AG70" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AH70" s="36"/>
-      <c r="AI70" s="37" t="s">
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AJ70" s="36"/>
-      <c r="AK70" s="36"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="M25:T26"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AA57:AE57"/>
-    <mergeCell ref="AG43:AK43"/>
+  <mergeCells count="31">
     <mergeCell ref="AG60:AK60"/>
     <mergeCell ref="X27:AB27"/>
     <mergeCell ref="W27:W28"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:K42"/>
     <mergeCell ref="D27:K27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
@@ -4822,6 +4832,24 @@
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="AA43:AE43"/>
+    <mergeCell ref="AA57:AE57"/>
+    <mergeCell ref="AG43:AK43"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="M25:T26"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:T22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
